--- a/accuracy_scores_testrun.xlsx
+++ b/accuracy_scores_testrun.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SegmentUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnorman/Projects/SegmentUI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8C52B8-D462-4482-B3B3-ED88167E351C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADD7EB6-8FDF-434D-BFD0-11F708674600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Scores" sheetId="1" r:id="rId1"/>
     <sheet name="Visual Scores" sheetId="2" r:id="rId2"/>
     <sheet name="Content Scores" sheetId="3" r:id="rId3"/>
     <sheet name="Functional Scores" sheetId="4" r:id="rId4"/>
+    <sheet name="Overall Scores (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="Visual Scores (2)" sheetId="6" r:id="rId6"/>
+    <sheet name="Content Scores (2)" sheetId="7" r:id="rId7"/>
+    <sheet name="Functional Scores (2)" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="39">
   <si>
     <t>Image Name</t>
   </si>
@@ -130,12 +135,36 @@
   <si>
     <t>Avg Functional</t>
   </si>
+  <si>
+    <t>Fixed-Size Segment</t>
+  </si>
+  <si>
+    <t>LLM Segment</t>
+  </si>
+  <si>
+    <t>Zero-Shot Baseline</t>
+  </si>
+  <si>
+    <t>Overlap Segment</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +176,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,13 +221,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,10 +246,2292 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall Scores'!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full Image Gen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Scores'!$A$28:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Avg Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Visual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Avg Content</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Avg Functional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall Scores'!$B$28:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>83.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.904761904761898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B37-534D-B99D-36CD7CEE0880}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall Scores'!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LLM Segment Gen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Scores'!$A$28:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Avg Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Visual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Avg Content</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Avg Functional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall Scores'!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>82.095238095238102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.476190476190482</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.761904761904759</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.952380952380949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9B37-534D-B99D-36CD7CEE0880}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall Scores'!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set Gen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Scores'!$A$28:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Avg Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Visual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Avg Content</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Avg Functional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall Scores'!$D$28:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>83.38095238095238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.095238095238102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.523809523809518</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.38095238095238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9B37-534D-B99D-36CD7CEE0880}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall Scores'!$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Overlap Gen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Scores'!$A$28:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Avg Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Visual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Avg Content</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Avg Functional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall Scores'!$E$28:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>85.238095238095241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.761904761904759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.285714285714292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9B37-534D-B99D-36CD7CEE0880}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="739880976"/>
+        <c:axId val="739882688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="739880976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="739882688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="739882688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="739880976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Accuracy Score by LLM </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall Scores (2)'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zero-Shot Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Scores (2)'!$A$19:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Visual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Content</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Functional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall Scores (2)'!$B$19:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>82.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B14-E048-8361-F29DD24BFF81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall Scores (2)'!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LLM Segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Scores (2)'!$A$19:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Visual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Content</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Functional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall Scores (2)'!$C$19:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.083333333333329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.166666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B14-E048-8361-F29DD24BFF81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall Scores (2)'!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fixed-Size Segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Scores (2)'!$A$19:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Visual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Content</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Functional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall Scores (2)'!$D$19:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>85.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.916666666666671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.416666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B14-E048-8361-F29DD24BFF81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall Scores (2)'!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Overlap Segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Scores (2)'!$A$19:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Visual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Content</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Functional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall Scores (2)'!$E$19:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>86.416666666666671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.833333333333329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7B14-E048-8361-F29DD24BFF81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="739880976"/>
+        <c:axId val="739882688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="739880976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="739882688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="739882688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="739880976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>244227</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>94214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>102096</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>170414</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DADB426C-95D5-A01F-DE42-0943A1F0E7EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>410914</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>268783</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98976</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8D7BE7-73FB-134D-9932-524A1503301E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,44 +2539,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -283,14 +2603,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -317,9 +2655,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -328,166 +2684,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -495,20 +2827,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +2857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -542,7 +2874,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -559,7 +2891,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -576,7 +2908,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -593,7 +2925,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -610,7 +2942,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -627,7 +2959,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -644,7 +2976,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -661,7 +2993,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -678,7 +3010,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -695,7 +3027,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -712,7 +3044,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -729,7 +3061,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -746,7 +3078,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -763,7 +3095,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -780,7 +3112,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -797,7 +3129,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -814,7 +3146,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -831,7 +3163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -848,7 +3180,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -865,7 +3197,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -882,7 +3214,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -903,19 +3235,19 @@
         <v>85.238095238095241</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
@@ -929,7 +3261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -946,7 +3278,7 @@
         <v>85.238095238095241</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -963,7 +3295,7 @@
         <v>84.761904761904759</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -980,7 +3312,7 @@
         <v>91.428571428571431</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1019,6 +3351,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1027,19 +3360,19 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +3389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1073,7 +3406,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +3423,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1107,7 +3440,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1124,7 +3457,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1141,7 +3474,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +3491,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1175,7 +3508,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1192,7 +3525,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1209,7 +3542,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1226,7 +3559,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1243,7 +3576,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1260,7 +3593,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1277,7 +3610,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1294,7 +3627,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1311,7 +3644,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1328,7 +3661,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1345,7 +3678,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1362,7 +3695,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1379,7 +3712,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1396,7 +3729,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1413,7 +3746,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1454,19 +3787,19 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +3816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1500,7 +3833,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1517,7 +3850,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1534,7 +3867,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1551,7 +3884,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1568,7 +3901,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1585,7 +3918,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1602,7 +3935,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1619,7 +3952,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1636,7 +3969,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1653,7 +3986,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1670,7 +4003,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1687,7 +4020,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1704,7 +4037,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1721,7 +4054,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1738,7 +4071,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1755,7 +4088,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1772,7 +4105,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1789,7 +4122,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1806,7 +4139,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1823,7 +4156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1840,7 +4173,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1881,19 +4214,19 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1910,7 +4243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1927,7 +4260,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1944,7 +4277,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1961,7 +4294,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1978,7 +4311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1995,7 +4328,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2012,7 +4345,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2029,7 +4362,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2046,7 +4379,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2063,7 +4396,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2080,7 +4413,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2097,7 +4430,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2114,7 +4447,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2131,7 +4464,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2148,7 +4481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2165,7 +4498,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2182,7 +4515,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2199,7 +4532,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2216,7 +4549,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2233,7 +4566,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2250,7 +4583,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2267,7 +4600,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2301,4 +4634,1199 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FCEAB0-3A97-3C47-BB39-5E9BC0DBBBA1}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>83</v>
+      </c>
+      <c r="C2">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>85</v>
+      </c>
+      <c r="E2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>87</v>
+      </c>
+      <c r="E3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>78</v>
+      </c>
+      <c r="E6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>87</v>
+      </c>
+      <c r="C7">
+        <v>85</v>
+      </c>
+      <c r="D7">
+        <v>85</v>
+      </c>
+      <c r="E7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>83</v>
+      </c>
+      <c r="C8">
+        <v>85</v>
+      </c>
+      <c r="D8">
+        <v>93</v>
+      </c>
+      <c r="E8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>87</v>
+      </c>
+      <c r="D10">
+        <v>87</v>
+      </c>
+      <c r="E10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <v>75</v>
+      </c>
+      <c r="E11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <v>83</v>
+      </c>
+      <c r="D12">
+        <v>77</v>
+      </c>
+      <c r="E12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>83</v>
+      </c>
+      <c r="C13">
+        <v>67</v>
+      </c>
+      <c r="D13">
+        <v>87</v>
+      </c>
+      <c r="E13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(B2:B13)</f>
+        <v>82.666666666666671</v>
+      </c>
+      <c r="C15" s="2">
+        <f>AVERAGE(C2:C13)</f>
+        <v>80</v>
+      </c>
+      <c r="D15" s="2">
+        <f>AVERAGE(D2:D13)</f>
+        <v>85.333333333333329</v>
+      </c>
+      <c r="E15" s="2">
+        <f>AVERAGE(E2:E13)</f>
+        <v>86.416666666666671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2">
+        <v>82.666666666666671</v>
+      </c>
+      <c r="C19" s="2">
+        <v>80</v>
+      </c>
+      <c r="D19" s="2">
+        <v>85.333333333333329</v>
+      </c>
+      <c r="E19" s="2">
+        <v>86.416666666666671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2">
+        <v>81.25</v>
+      </c>
+      <c r="C20" s="2">
+        <v>77.083333333333329</v>
+      </c>
+      <c r="D20" s="2">
+        <v>82.916666666666671</v>
+      </c>
+      <c r="E20" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="4">
+        <v>89.17</v>
+      </c>
+      <c r="C21" s="4">
+        <v>88.75</v>
+      </c>
+      <c r="D21" s="4">
+        <v>92.5</v>
+      </c>
+      <c r="E21" s="4">
+        <v>93.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>74.166666666666671</v>
+      </c>
+      <c r="D22" s="2">
+        <v>80.416666666666671</v>
+      </c>
+      <c r="E22" s="2">
+        <v>80.833333333333329</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:E13">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DA59E6-491C-B946-AEE6-F8030E7A0C36}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>85</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>85</v>
+      </c>
+      <c r="E5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>85</v>
+      </c>
+      <c r="C6">
+        <v>85</v>
+      </c>
+      <c r="D6">
+        <v>85</v>
+      </c>
+      <c r="E6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>85</v>
+      </c>
+      <c r="C7">
+        <v>85</v>
+      </c>
+      <c r="D7">
+        <v>85</v>
+      </c>
+      <c r="E7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>85</v>
+      </c>
+      <c r="D9">
+        <v>85</v>
+      </c>
+      <c r="E9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>85</v>
+      </c>
+      <c r="C11">
+        <v>85</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>85</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>85</v>
+      </c>
+      <c r="E12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>85</v>
+      </c>
+      <c r="C15">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <v>85</v>
+      </c>
+      <c r="E15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>85</v>
+      </c>
+      <c r="D20">
+        <v>75</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>70</v>
+      </c>
+      <c r="C21">
+        <v>85</v>
+      </c>
+      <c r="D21">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>75</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>85</v>
+      </c>
+      <c r="E22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2">
+        <f>AVERAGE(B2:B22)</f>
+        <v>81.25</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C2:C22)</f>
+        <v>77.083333333333329</v>
+      </c>
+      <c r="D24" s="2">
+        <f>AVERAGE(D2:D22)</f>
+        <v>82.916666666666671</v>
+      </c>
+      <c r="E24" s="2">
+        <f>AVERAGE(E2:E22)</f>
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:E22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8873BF5-4A7A-5342-9CCA-C5A26CCF5CB5}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>95</v>
+      </c>
+      <c r="E5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>95</v>
+      </c>
+      <c r="C6">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <v>95</v>
+      </c>
+      <c r="E6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>95</v>
+      </c>
+      <c r="C7">
+        <v>95</v>
+      </c>
+      <c r="D7">
+        <v>95</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>95</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>95</v>
+      </c>
+      <c r="D12">
+        <v>95</v>
+      </c>
+      <c r="E12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>95</v>
+      </c>
+      <c r="E15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>95</v>
+      </c>
+      <c r="C20">
+        <v>95</v>
+      </c>
+      <c r="D20">
+        <v>90</v>
+      </c>
+      <c r="E20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>85</v>
+      </c>
+      <c r="C21">
+        <v>90</v>
+      </c>
+      <c r="D21">
+        <v>85</v>
+      </c>
+      <c r="E21">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>95</v>
+      </c>
+      <c r="C22">
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <v>95</v>
+      </c>
+      <c r="E22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2">
+        <f>AVERAGE(B2:B22)</f>
+        <v>89.166666666666671</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C2:C22)</f>
+        <v>88.75</v>
+      </c>
+      <c r="D24" s="2">
+        <f>AVERAGE(D2:D22)</f>
+        <v>92.5</v>
+      </c>
+      <c r="E24" s="2">
+        <f>AVERAGE(E2:E22)</f>
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:E22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3B460D-892B-A04C-A2A3-FD990F5256B2}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>85</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>80</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>75</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <v>90</v>
+      </c>
+      <c r="E12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>80</v>
+      </c>
+      <c r="E15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>75</v>
+      </c>
+      <c r="C20">
+        <v>90</v>
+      </c>
+      <c r="D20">
+        <v>60</v>
+      </c>
+      <c r="E20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>75</v>
+      </c>
+      <c r="D21">
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>80</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2">
+        <f>AVERAGE(B2:B22)</f>
+        <v>77.5</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C2:C22)</f>
+        <v>74.166666666666671</v>
+      </c>
+      <c r="D24" s="2">
+        <f>AVERAGE(D2:D22)</f>
+        <v>80.416666666666671</v>
+      </c>
+      <c r="E24" s="2">
+        <f>AVERAGE(E2:E22)</f>
+        <v>80.833333333333329</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:E22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/accuracy_scores_testrun.xlsx
+++ b/accuracy_scores_testrun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnorman/Projects/SegmentUI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADD7EB6-8FDF-434D-BFD0-11F708674600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00821F67-1A07-FF4C-A7C1-B74B5DFF082E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4641,7 +4641,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/accuracy_scores_testrun.xlsx
+++ b/accuracy_scores_testrun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnorman/Projects/SegmentUI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SegmentUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00821F67-1A07-FF4C-A7C1-B74B5DFF082E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B8C210-E46B-48B9-BA6F-1C723707DEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-16200" yWindow="5010" windowWidth="16410" windowHeight="15375" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Scores" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Functional Scores (2)" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2489,16 +2488,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>410914</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>22776</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>264864</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>92626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>268783</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>98976</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>859333</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>168826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2827,20 +2826,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2857,7 +2856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2874,7 +2873,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2891,7 +2890,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2908,7 +2907,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2925,7 +2924,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2942,7 +2941,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2959,7 +2958,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2976,7 +2975,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2993,7 +2992,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3010,7 +3009,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3027,7 +3026,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3044,7 +3043,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3061,7 +3060,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3078,7 +3077,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -3095,7 +3094,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3112,7 +3111,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3146,7 +3145,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3163,7 +3162,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3180,7 +3179,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3197,7 +3196,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3214,7 +3213,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3235,19 +3234,19 @@
         <v>85.238095238095241</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
@@ -3261,7 +3260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3278,7 +3277,7 @@
         <v>85.238095238095241</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>84.761904761904759</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3312,7 +3311,7 @@
         <v>91.428571428571431</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3363,16 +3362,16 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3389,7 +3388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3406,7 +3405,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3423,7 +3422,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3440,7 +3439,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3457,7 +3456,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3491,7 +3490,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3508,7 +3507,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3542,7 +3541,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3559,7 +3558,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3593,7 +3592,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3610,7 +3609,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -3627,7 +3626,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3644,7 +3643,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3678,7 +3677,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3695,7 +3694,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3712,7 +3711,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3729,7 +3728,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3746,7 +3745,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3790,16 +3789,16 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3816,7 +3815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3867,7 +3866,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3901,7 +3900,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3918,7 +3917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3986,7 +3985,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -4003,7 +4002,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -4020,7 +4019,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -4037,7 +4036,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -4054,7 +4053,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -4071,7 +4070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -4088,7 +4087,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -4105,7 +4104,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4122,7 +4121,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4173,7 +4172,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -4217,16 +4216,16 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4243,7 +4242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4260,7 +4259,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4277,7 +4276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4294,7 +4293,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4311,7 +4310,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4328,7 +4327,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4345,7 +4344,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4362,7 +4361,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4379,7 +4378,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -4396,7 +4395,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -4413,7 +4412,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -4447,7 +4446,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -4464,7 +4463,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -4481,7 +4480,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -4515,7 +4514,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -4532,7 +4531,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4549,7 +4548,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -4566,7 +4565,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -4583,7 +4582,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4600,7 +4599,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -4640,20 +4639,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FCEAB0-3A97-3C47-BB39-5E9BC0DBBBA1}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4687,7 +4686,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4704,7 +4703,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4721,7 +4720,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4738,7 +4737,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4755,7 +4754,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4772,7 +4771,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -4806,7 +4805,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4823,7 +4822,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4840,7 +4839,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4874,7 +4873,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -4895,19 +4894,19 @@
         <v>86.416666666666671</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
@@ -4921,7 +4920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -4938,7 +4937,7 @@
         <v>86.416666666666671</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -4972,7 +4971,7 @@
         <v>93.33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -5014,16 +5013,16 @@
       <selection activeCell="B24" sqref="B24:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5040,7 +5039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5057,7 +5056,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5074,7 +5073,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -5091,7 +5090,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -5125,7 +5124,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5159,7 +5158,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -5176,7 +5175,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -5193,7 +5192,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -5210,7 +5209,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -5227,7 +5226,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -5244,7 +5243,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -5286,19 +5285,19 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:E24"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5315,7 +5314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5332,7 +5331,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5349,7 +5348,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -5383,7 +5382,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -5400,7 +5399,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5434,7 +5433,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -5451,7 +5450,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -5468,7 +5467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -5485,7 +5484,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -5519,7 +5518,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -5564,16 +5563,16 @@
       <selection activeCell="B24" sqref="B24:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5607,7 +5606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5624,7 +5623,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -5641,7 +5640,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -5658,7 +5657,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -5675,7 +5674,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -5692,7 +5691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5709,7 +5708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -5743,7 +5742,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -5760,7 +5759,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -5777,7 +5776,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
